--- a/test/writer_output/Vant Hoff Dual Mode Analysis.xlsx
+++ b/test/writer_output/Vant Hoff Dual Mode Analysis.xlsx
@@ -597,64 +597,64 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>56.54900864388074</v>
+        <v>56.54900864344717</v>
       </c>
       <c r="C2">
-        <v>56.3755090524041</v>
+        <v>56.37550905215042</v>
       </c>
       <c r="D2">
-        <v>26.696691543410203</v>
+        <v>26.69671513052792</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>712.7133393639899</v>
+        <v>712.7145987605584</v>
       </c>
       <c r="H2">
-        <v>0.02200381530360596</v>
+        <v>0.022003852022244</v>
       </c>
       <c r="I2">
-        <v>2.0494538360154946e-6</v>
+        <v>2.049458814298015e-6</v>
       </c>
       <c r="J2">
-        <v>-2.1611600123703005</v>
+        <v>-2.161163857439426</v>
       </c>
       <c r="K2">
-        <v>39361.55391917571</v>
+        <v>39361.61941443408</v>
       </c>
       <c r="L2">
-        <v>53995.886843871784</v>
+        <v>53996.01104513996</v>
       </c>
       <c r="O2">
         <v>0.003411222923418046</v>
       </c>
       <c r="P2">
-        <v>56.54900864388074</v>
+        <v>56.54900864344717</v>
       </c>
       <c r="Q2">
-        <v>0.6153752142343902</v>
+        <v>0.6153752142525408</v>
       </c>
       <c r="R2">
-        <v>1.6148376886362221</v>
+        <v>1.6148376886502387</v>
       </c>
       <c r="S2">
-        <v>53.61750864388074</v>
+        <v>53.617508643447174</v>
       </c>
       <c r="T2">
-        <v>0.6268029637411336</v>
+        <v>0.6268029637286191</v>
       </c>
       <c r="U2">
-        <v>0.24390360388496832</v>
+        <v>0.24390360324882984</v>
       </c>
       <c r="V2">
-        <v>56.37550904620178</v>
+        <v>56.3755090459481</v>
       </c>
       <c r="W2">
-        <v>0.5816055165379357</v>
+        <v>0.581605516535487</v>
       </c>
       <c r="X2">
-        <v>1.633125361909201</v>
+        <v>1.6331253619288049</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -662,64 +662,64 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.0058265335758304814</v>
+        <v>0.005826533576832283</v>
       </c>
       <c r="C3">
-        <v>0.0015756246953167144</v>
+        <v>0.0015756246956183683</v>
       </c>
       <c r="D3">
-        <v>0.000889198672361785</v>
+        <v>0.0008891992682263319</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3">
-        <v>0.02200381530360596</v>
+        <v>0.022003852022244</v>
       </c>
       <c r="H3">
-        <v>7.90674278929961e-7</v>
+        <v>7.906753386142442e-7</v>
       </c>
       <c r="I3">
-        <v>7.772206599551268e-11</v>
+        <v>7.772221661172754e-11</v>
       </c>
       <c r="J3">
-        <v>-6.716268643128206e-5</v>
+        <v>-6.716279864215835e-5</v>
       </c>
       <c r="K3">
-        <v>1.388821148821613</v>
+        <v>1.3888230384628588</v>
       </c>
       <c r="L3">
-        <v>1.9599353415375045</v>
+        <v>1.9599390789591322</v>
       </c>
       <c r="O3">
         <v>0.003331667499583542</v>
       </c>
       <c r="P3">
-        <v>56.49580288933426</v>
+        <v>56.49580289155446</v>
       </c>
       <c r="Q3">
-        <v>0.4427984582369638</v>
+        <v>0.44279845818538205</v>
       </c>
       <c r="R3">
-        <v>1.1730617304624487</v>
+        <v>1.1730617303115607</v>
       </c>
       <c r="S3">
-        <v>53.54750864388074</v>
+        <v>53.54750864344717</v>
       </c>
       <c r="T3">
-        <v>0.4921870982681673</v>
+        <v>0.49218709825995427</v>
       </c>
       <c r="U3">
-        <v>0.14492867392596484</v>
+        <v>0.14492867330466272</v>
       </c>
       <c r="V3">
-        <v>56.37550904605368</v>
+        <v>56.3755090458</v>
       </c>
       <c r="W3">
-        <v>0.41754433782885325</v>
+        <v>0.4175443378309271</v>
       </c>
       <c r="X3">
-        <v>1.2218913871420511</v>
+        <v>1.2218913871611967</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -733,58 +733,58 @@
         <v>1.1253517483185387e-7</v>
       </c>
       <c r="D4">
-        <v>9.753097383440377e-8</v>
+        <v>9.753088399320308e-8</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
       <c r="G4">
-        <v>2.0494538360154946e-6</v>
+        <v>2.049458814298015e-6</v>
       </c>
       <c r="H4">
-        <v>7.772206599551268e-11</v>
+        <v>7.772221661172754e-11</v>
       </c>
       <c r="I4">
-        <v>-9.512290857087154e-15</v>
+        <v>-9.512273332495637e-15</v>
       </c>
       <c r="J4">
-        <v>-5.912971423922889e-9</v>
+        <v>-5.91298658208986e-9</v>
       </c>
       <c r="K4">
-        <v>0.00014260158922025067</v>
+        <v>0.00014260185789952503</v>
       </c>
       <c r="L4">
-        <v>-0.00017077958317443596</v>
+        <v>-0.00017077913807753546</v>
       </c>
       <c r="O4">
         <v>0.0032451728054518907</v>
       </c>
       <c r="P4">
-        <v>47.090797981766464</v>
+        <v>47.09079798179234</v>
       </c>
       <c r="Q4">
-        <v>0.447601944431212</v>
+        <v>0.4476019444314724</v>
       </c>
       <c r="R4">
-        <v>1.3617178370986744</v>
+        <v>1.3617178370974297</v>
       </c>
       <c r="S4">
-        <v>53.46750864388074</v>
+        <v>53.467508643447175</v>
       </c>
       <c r="T4">
-        <v>0.34582928194160983</v>
+        <v>0.34582928193807383</v>
       </c>
       <c r="U4">
-        <v>0.037320595420666715</v>
+        <v>0.037320594815494025</v>
       </c>
       <c r="V4">
-        <v>56.37550904588442</v>
+        <v>56.375509045630736</v>
       </c>
       <c r="W4">
-        <v>0.2391728228855091</v>
+        <v>0.23917282289249892</v>
       </c>
       <c r="X4">
-        <v>0.7747872784640286</v>
+        <v>0.7747872784826804</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -795,61 +795,61 @@
         <v>-0.01</v>
       </c>
       <c r="C5">
-        <v>-2.1157487650743913e-11</v>
+        <v>-2.1157493909316082e-11</v>
       </c>
       <c r="D5">
-        <v>0.08095471168451995</v>
+        <v>0.08095478418561232</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
       <c r="G5">
-        <v>-2.1611600123703005</v>
+        <v>-2.161163857439426</v>
       </c>
       <c r="H5">
-        <v>-6.716268643128206e-5</v>
+        <v>-6.716279864215835e-5</v>
       </c>
       <c r="I5">
-        <v>-5.912971423922889e-9</v>
+        <v>-5.91298658208986e-9</v>
       </c>
       <c r="J5">
-        <v>0.006553665343923752</v>
+        <v>0.006553677082539066</v>
       </c>
       <c r="K5">
-        <v>-120.01304775859707</v>
+        <v>-120.01324791011729</v>
       </c>
       <c r="L5">
-        <v>-157.13648850763468</v>
+        <v>-157.13686683309874</v>
       </c>
       <c r="O5">
         <v>0.0030945381401825778</v>
       </c>
       <c r="P5">
-        <v>48.60965068590119</v>
+        <v>48.60965068557774</v>
       </c>
       <c r="Q5">
-        <v>0.04998384043191716</v>
+        <v>0.04998384044543179</v>
       </c>
       <c r="R5">
-        <v>1.1088129428518478</v>
+        <v>1.1088129428693498</v>
       </c>
       <c r="S5">
-        <v>53.31750864388074</v>
+        <v>53.31750864344718</v>
       </c>
       <c r="T5">
-        <v>0.0909401133835699</v>
+        <v>0.09094011338817946</v>
       </c>
       <c r="U5">
-        <v>-0.15008404307944154</v>
+        <v>-0.15008404365652345</v>
       </c>
       <c r="V5">
-        <v>56.37550904556706</v>
+        <v>56.37550904531338</v>
       </c>
       <c r="W5">
-        <v>-0.0714697398383305</v>
+        <v>-0.07146973982277777</v>
       </c>
       <c r="X5">
-        <v>-0.0038660068893748194</v>
+        <v>-0.0038660068715899226</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -857,34 +857,34 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-14068.916075586216</v>
+        <v>-14068.916075136634</v>
       </c>
       <c r="C6">
-        <v>-17146.292128421945</v>
+        <v>-17146.29212794934</v>
       </c>
       <c r="D6">
-        <v>1564.5079340789284</v>
+        <v>1564.5090109994653</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
       <c r="G6">
-        <v>39361.55391917571</v>
+        <v>39361.61941443408</v>
       </c>
       <c r="H6">
-        <v>1.388821148821613</v>
+        <v>1.3888230384628588</v>
       </c>
       <c r="I6">
-        <v>0.00014260158922025067</v>
+        <v>0.00014260185789952503</v>
       </c>
       <c r="J6">
-        <v>-120.01304775859707</v>
+        <v>-120.01324791011729</v>
       </c>
       <c r="K6">
-        <v>2.447685075795917e6</v>
+        <v>2.447688445498525e6</v>
       </c>
       <c r="L6">
-        <v>3.5882561798935835e6</v>
+        <v>3.588262846906604e6</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -892,34 +892,34 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>-10344.025782457815</v>
+        <v>-10344.025780907301</v>
       </c>
       <c r="C7">
-        <v>-42978.71025901228</v>
+        <v>-42978.71025906006</v>
       </c>
       <c r="D7">
-        <v>1673.0751988686145</v>
+        <v>1673.071830103389</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7">
-        <v>53995.886843871784</v>
+        <v>53996.01104513996</v>
       </c>
       <c r="H7">
-        <v>1.9599353415375045</v>
+        <v>1.9599390789591322</v>
       </c>
       <c r="I7">
-        <v>-0.00017077958317443596</v>
+        <v>-0.00017077913807753546</v>
       </c>
       <c r="J7">
-        <v>-157.13648850763468</v>
+        <v>-157.13686683309874</v>
       </c>
       <c r="K7">
-        <v>3.5882561798935835e6</v>
+        <v>3.588262846906604e6</v>
       </c>
       <c r="L7">
-        <v>-2.799180621069254e6</v>
+        <v>-2.799169348685503e6</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -927,10 +927,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>880.6354168943415</v>
+        <v>880.6354173590803</v>
       </c>
       <c r="C8">
-        <v>13.659028161290296</v>
+        <v>13.659028161290298</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1007,28 +1007,28 @@
         <v>11</v>
       </c>
       <c r="E13">
-        <v>19.63123835226607</v>
+        <v>19.631238352368655</v>
       </c>
       <c r="F13">
-        <v>17.84350770626256</v>
+        <v>17.843507705762967</v>
       </c>
       <c r="G13">
-        <v>19.184499345879964</v>
+        <v>19.184499345795743</v>
       </c>
       <c r="H13">
-        <v>15.4570402076668</v>
+        <v>15.457052168805879</v>
       </c>
       <c r="I13">
-        <v>1.3268764026252091</v>
+        <v>1.3268764026512212</v>
       </c>
       <c r="J13">
-        <v>1.4669602520892757</v>
+        <v>1.4669582830996057</v>
       </c>
       <c r="K13">
-        <v>17.857622943254754</v>
+        <v>17.857622943144523</v>
       </c>
       <c r="L13">
-        <v>15.387271350054833</v>
+        <v>15.387283553143225</v>
       </c>
       <c r="P13" t="s">
         <v>39</v>
@@ -1060,46 +1060,46 @@
         <v>11</v>
       </c>
       <c r="E14">
-        <v>34.944910540120226</v>
+        <v>34.94491054017971</v>
       </c>
       <c r="F14">
-        <v>30.908502255494632</v>
+        <v>30.90850225453375</v>
       </c>
       <c r="G14">
-        <v>34.440820093866336</v>
+        <v>34.4408200937612</v>
       </c>
       <c r="H14">
-        <v>23.277956956997443</v>
+        <v>23.277974949446104</v>
       </c>
       <c r="I14">
-        <v>3.4852476494850713</v>
+        <v>3.4852476495533957</v>
       </c>
       <c r="J14">
-        <v>3.853199710513142</v>
+        <v>3.8531945386549302</v>
       </c>
       <c r="K14">
-        <v>30.955572444381264</v>
+        <v>30.9555724442078</v>
       </c>
       <c r="L14">
-        <v>22.956831926089606</v>
+        <v>22.95685103829182</v>
       </c>
       <c r="O14" t="s">
         <v>36</v>
       </c>
       <c r="P14">
-        <v>56.54900864388074</v>
+        <v>56.54900864344717</v>
       </c>
       <c r="Q14" t="s">
         <v>11</v>
       </c>
       <c r="R14">
-        <v>53.61750864388074</v>
+        <v>53.617508643447174</v>
       </c>
       <c r="S14">
-        <v>56.37550904620178</v>
+        <v>56.3755090459481</v>
       </c>
       <c r="T14">
-        <v>35.719954788824985</v>
+        <v>35.719986538249756</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1116,46 +1116,46 @@
         <v>11</v>
       </c>
       <c r="E15">
-        <v>44.30166683514569</v>
+        <v>44.30166683515474</v>
       </c>
       <c r="F15">
-        <v>38.112932451028044</v>
+        <v>38.11293244965033</v>
       </c>
       <c r="G15">
-        <v>43.87437881555255</v>
+        <v>43.874378815467075</v>
       </c>
       <c r="H15">
-        <v>27.086175795697912</v>
+        <v>27.086195497064722</v>
       </c>
       <c r="I15">
-        <v>5.904266621023788</v>
+        <v>5.904266621139535</v>
       </c>
       <c r="J15">
-        <v>6.527604555814712</v>
+        <v>6.527595794305379</v>
       </c>
       <c r="K15">
-        <v>37.97011219452876</v>
+        <v>37.97011219432754</v>
       </c>
       <c r="L15">
-        <v>26.287854571995002</v>
+        <v>26.28787704725081</v>
       </c>
       <c r="O15" t="s">
         <v>37</v>
       </c>
       <c r="P15">
-        <v>1.850350747262121</v>
+        <v>1.850350747295706</v>
       </c>
       <c r="Q15" t="s">
         <v>11</v>
       </c>
       <c r="R15">
-        <v>1.8716173755119863</v>
+        <v>1.8716173754885639</v>
       </c>
       <c r="S15">
-        <v>1.7889082481412157</v>
+        <v>1.7889082481368352</v>
       </c>
       <c r="T15">
-        <v>1.528963969454407</v>
+        <v>1.52896500962448</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1172,46 +1172,46 @@
         <v>11</v>
       </c>
       <c r="E16">
-        <v>51.244703353211406</v>
+        <v>51.244703353190715</v>
       </c>
       <c r="F16">
-        <v>42.832726313615055</v>
+        <v>42.832726311798346</v>
       </c>
       <c r="G16">
-        <v>50.915906119424776</v>
+        <v>50.91590611937728</v>
       </c>
       <c r="H16">
-        <v>29.842646054629846</v>
+        <v>29.842665240631028</v>
       </c>
       <c r="I16">
-        <v>8.607655410180659</v>
+        <v>8.607655410349404</v>
       </c>
       <c r="J16">
-        <v>9.516401320751273</v>
+        <v>9.516388547606349</v>
       </c>
       <c r="K16">
-        <v>42.30825070924412</v>
+        <v>42.30825070902788</v>
       </c>
       <c r="L16">
-        <v>28.28465360304626</v>
+        <v>28.28467814339336</v>
       </c>
       <c r="O16" t="s">
         <v>38</v>
       </c>
       <c r="P16">
-        <v>5.027071906349186</v>
+        <v>5.027071906419649</v>
       </c>
       <c r="Q16" t="s">
         <v>11</v>
       </c>
       <c r="R16">
-        <v>1.2762213017843926</v>
+        <v>1.2762213009725392</v>
       </c>
       <c r="S16">
-        <v>5.119851127196265</v>
+        <v>5.119851127296634</v>
       </c>
       <c r="T16">
-        <v>5.660375062328131</v>
+        <v>5.660367464835281</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1228,28 +1228,28 @@
         <v>11</v>
       </c>
       <c r="E17">
-        <v>56.73717234253107</v>
+        <v>56.73717234250037</v>
       </c>
       <c r="F17">
-        <v>46.105033290401565</v>
+        <v>46.10503328813593</v>
       </c>
       <c r="G17">
-        <v>56.50256493342916</v>
+        <v>56.50256493342812</v>
       </c>
       <c r="H17">
-        <v>32.170199676987615</v>
+        <v>32.17021682512751</v>
       </c>
       <c r="I17">
-        <v>11.422375981600402</v>
+        <v>11.422375981824326</v>
       </c>
       <c r="J17">
-        <v>12.628283626323542</v>
+        <v>12.628266676334627</v>
       </c>
       <c r="K17">
-        <v>45.08018895182876</v>
+        <v>45.080188951603795</v>
       </c>
       <c r="L17">
-        <v>29.587973906815296</v>
+        <v>29.587999785843813</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -1266,28 +1266,28 @@
         <v>11</v>
       </c>
       <c r="E18">
-        <v>60.89954735071279</v>
+        <v>60.89954735068476</v>
       </c>
       <c r="F18">
-        <v>48.31110247150444</v>
+        <v>48.31110246883658</v>
       </c>
       <c r="G18">
-        <v>60.74187605120115</v>
+        <v>60.74187605124479</v>
       </c>
       <c r="H18">
-        <v>34.10431394553936</v>
+        <v>34.10432839610455</v>
       </c>
       <c r="I18">
-        <v>13.958580337993476</v>
+        <v>13.95858033826712</v>
       </c>
       <c r="J18">
-        <v>15.432245603975204</v>
+        <v>15.43222489044044</v>
       </c>
       <c r="K18">
-        <v>46.78329571320768</v>
+        <v>46.78329571297767</v>
       </c>
       <c r="L18">
-        <v>30.412991061625263</v>
+        <v>30.413017776607003</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -1304,28 +1304,28 @@
         <v>11</v>
       </c>
       <c r="E19">
-        <v>64.05827935627113</v>
+        <v>64.05827935625118</v>
       </c>
       <c r="F19">
-        <v>49.84110508710397</v>
+        <v>49.84110508409774</v>
       </c>
       <c r="G19">
-        <v>63.96076138957979</v>
+        <v>63.96076138966225</v>
       </c>
       <c r="H19">
-        <v>35.701142212945435</v>
+        <v>35.70115393304383</v>
       </c>
       <c r="I19">
-        <v>16.095994114245553</v>
+        <v>16.095994114561098</v>
       </c>
       <c r="J19">
-        <v>17.795315024628312</v>
+        <v>17.795291139324394</v>
       </c>
       <c r="K19">
-        <v>47.86476727533424</v>
+        <v>47.86476727510116</v>
       </c>
       <c r="L19">
-        <v>30.949932447150708</v>
+        <v>30.949959699773007</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -1394,28 +1394,28 @@
         <v>11</v>
       </c>
       <c r="E24">
-        <v>17.239689857729914</v>
+        <v>17.239689857645875</v>
       </c>
       <c r="F24">
-        <v>16.389648759391562</v>
+        <v>16.389648758980368</v>
       </c>
       <c r="G24">
-        <v>16.955579426113136</v>
+        <v>16.955579426081723</v>
       </c>
       <c r="H24">
-        <v>14.1652123326882</v>
+        <v>14.165223391641982</v>
       </c>
       <c r="I24">
-        <v>0.8907950217694938</v>
+        <v>0.8907950217865485</v>
       </c>
       <c r="J24">
-        <v>0.9760501138928239</v>
+        <v>0.9760488156681055</v>
       </c>
       <c r="K24">
-        <v>16.06478440434364</v>
+        <v>16.064784404295175</v>
       </c>
       <c r="L24">
-        <v>14.131545089101603</v>
+        <v>14.131556264069223</v>
       </c>
       <c r="P24" t="s">
         <v>39</v>
@@ -1447,46 +1447,46 @@
         <v>11</v>
       </c>
       <c r="E25">
-        <v>31.3399025930972</v>
+        <v>31.33990259318078</v>
       </c>
       <c r="F25">
-        <v>29.06035329753558</v>
+        <v>29.060353296706072</v>
       </c>
       <c r="G25">
-        <v>31.032740727961446</v>
+        <v>31.03274072790589</v>
       </c>
       <c r="H25">
-        <v>22.039179454119047</v>
+        <v>22.039197057304186</v>
       </c>
       <c r="I25">
-        <v>2.320066554346217</v>
+        <v>2.3200665543906362</v>
       </c>
       <c r="J25">
-        <v>2.5421125727783083</v>
+        <v>2.542109191565262</v>
       </c>
       <c r="K25">
-        <v>28.71267417361523</v>
+        <v>28.712674173515254</v>
       </c>
       <c r="L25">
-        <v>21.89207835446844</v>
+        <v>21.89209646856246</v>
       </c>
       <c r="O25" t="s">
         <v>36</v>
       </c>
       <c r="P25">
-        <v>56.49580288933426</v>
+        <v>56.49580289155446</v>
       </c>
       <c r="Q25" t="s">
         <v>11</v>
       </c>
       <c r="R25">
-        <v>53.54750864388074</v>
+        <v>53.54750864344717</v>
       </c>
       <c r="S25">
-        <v>56.37550904605368</v>
+        <v>56.3755090458</v>
       </c>
       <c r="T25">
-        <v>36.09893623994412</v>
+        <v>36.09896833130051</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -1503,46 +1503,46 @@
         <v>11</v>
       </c>
       <c r="E26">
-        <v>40.05076276399044</v>
+        <v>40.050762764184874</v>
       </c>
       <c r="F26">
-        <v>36.359228505116306</v>
+        <v>36.35922850390317</v>
       </c>
       <c r="G26">
-        <v>39.8322916660726</v>
+        <v>39.832291666013134</v>
       </c>
       <c r="H26">
-        <v>25.84803600878926</v>
+        <v>25.84805642460696</v>
       </c>
       <c r="I26">
-        <v>3.922128196408346</v>
+        <v>3.9221281964834374</v>
       </c>
       <c r="J26">
-        <v>4.2975023201209845</v>
+        <v>4.297496604099174</v>
       </c>
       <c r="K26">
-        <v>35.910163469664255</v>
+        <v>35.9101634695297</v>
       </c>
       <c r="L26">
-        <v>25.488280430821945</v>
+        <v>25.488302098559274</v>
       </c>
       <c r="O26" t="s">
         <v>37</v>
       </c>
       <c r="P26">
-        <v>1.557058490403205</v>
+        <v>1.5570584903228892</v>
       </c>
       <c r="Q26" t="s">
         <v>11</v>
       </c>
       <c r="R26">
-        <v>1.6358901627906048</v>
+        <v>1.6358901627771691</v>
       </c>
       <c r="S26">
-        <v>1.518228717371236</v>
+        <v>1.5182287173743847</v>
       </c>
       <c r="T26">
-        <v>1.2806360220511142</v>
+        <v>1.2806368930123213</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -1559,46 +1559,46 @@
         <v>11</v>
       </c>
       <c r="E27">
-        <v>46.36370574416823</v>
+        <v>46.36370574437168</v>
       </c>
       <c r="F27">
-        <v>41.25027145119813</v>
+        <v>41.25027144958293</v>
       </c>
       <c r="G27">
-        <v>46.26333987731921</v>
+        <v>46.26333987726997</v>
       </c>
       <c r="H27">
-        <v>28.38074364041015</v>
+        <v>28.38076511717151</v>
       </c>
       <c r="I27">
-        <v>5.7226879428944</v>
+        <v>5.722687943003965</v>
       </c>
       <c r="J27">
-        <v>6.270387779379097</v>
+        <v>6.270379439261829</v>
       </c>
       <c r="K27">
-        <v>40.54065193442481</v>
+        <v>40.540651934266</v>
       </c>
       <c r="L27">
-        <v>27.67939390013615</v>
+        <v>27.679417810419018</v>
       </c>
       <c r="O27" t="s">
         <v>38</v>
       </c>
       <c r="P27">
-        <v>3.2318726287551134</v>
+        <v>3.231872628267463</v>
       </c>
       <c r="Q27" t="s">
         <v>11</v>
       </c>
       <c r="R27">
-        <v>1.1559571174445982</v>
+        <v>1.1559571167263996</v>
       </c>
       <c r="S27">
-        <v>3.393600279340022</v>
+        <v>3.3936002794049944</v>
       </c>
       <c r="T27">
-        <v>3.7183907163927326</v>
+        <v>3.7183857706356735</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -1615,28 +1615,28 @@
         <v>11</v>
       </c>
       <c r="E28">
-        <v>50.87132332536687</v>
+        <v>50.87132332550211</v>
       </c>
       <c r="F28">
-        <v>44.4686700355504</v>
+        <v>44.46867003355328</v>
       </c>
       <c r="G28">
-        <v>50.884146371037225</v>
+        <v>50.88414637100584</v>
       </c>
       <c r="H28">
-        <v>30.17595444957221</v>
+        <v>30.17597584501977</v>
       </c>
       <c r="I28">
-        <v>7.479680000816636</v>
+        <v>7.4796800009598385</v>
       </c>
       <c r="J28">
-        <v>8.195535828407534</v>
+        <v>8.195524927689382</v>
       </c>
       <c r="K28">
-        <v>43.40446637022059</v>
+        <v>43.404466370046</v>
       </c>
       <c r="L28">
-        <v>29.041718603208473</v>
+        <v>29.041743910427254</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -1653,28 +1653,28 @@
         <v>11</v>
       </c>
       <c r="E29">
-        <v>54.408606571677204</v>
+        <v>54.40860657170006</v>
       </c>
       <c r="F29">
-        <v>46.810705623392515</v>
+        <v>46.810705621028845</v>
       </c>
       <c r="G29">
-        <v>54.52672398227108</v>
+        <v>54.52672398226131</v>
       </c>
       <c r="H29">
-        <v>31.627057691501037</v>
+        <v>31.62707833053274</v>
       </c>
       <c r="I29">
-        <v>9.185185339444805</v>
+        <v>9.185185339620661</v>
       </c>
       <c r="J29">
-        <v>10.064269531820168</v>
+        <v>10.064256145536724</v>
       </c>
       <c r="K29">
-        <v>45.34153864282627</v>
+        <v>45.34153864264065</v>
       </c>
       <c r="L29">
-        <v>29.98301614268336</v>
+        <v>29.98304240671183</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -1691,28 +1691,28 @@
         <v>11</v>
       </c>
       <c r="E30">
-        <v>57.02979501862478</v>
+        <v>57.02979501852705</v>
       </c>
       <c r="F30">
-        <v>48.438800239225415</v>
+        <v>48.43880023655</v>
       </c>
       <c r="G30">
-        <v>57.23465434265553</v>
+        <v>57.23465434266643</v>
       </c>
       <c r="H30">
-        <v>32.75025287491661</v>
+        <v>32.75027247706888</v>
       </c>
       <c r="I30">
-        <v>10.643609011521951</v>
+        <v>10.643609011725728</v>
       </c>
       <c r="J30">
-        <v>11.66227418659162</v>
+        <v>11.662258674834174</v>
       </c>
       <c r="K30">
-        <v>46.59104533113358</v>
+        <v>46.5910453309407</v>
       </c>
       <c r="L30">
-        <v>30.6034381102474</v>
+        <v>30.603464998648608</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -1781,28 +1781,28 @@
         <v>11</v>
       </c>
       <c r="E35">
-        <v>14.897563789626002</v>
+        <v>14.897563789634868</v>
       </c>
       <c r="F35">
-        <v>14.904557700274806</v>
+        <v>14.9045576999512</v>
       </c>
       <c r="G35">
-        <v>14.836153236173761</v>
+        <v>14.836153236194848</v>
       </c>
       <c r="H35">
-        <v>12.815181366229728</v>
+        <v>12.815191411907142</v>
       </c>
       <c r="I35">
-        <v>0.5783646179895717</v>
+        <v>0.5783646180003592</v>
       </c>
       <c r="J35">
-        <v>0.6276093675269184</v>
+        <v>0.6276085411460969</v>
       </c>
       <c r="K35">
-        <v>14.25778861818419</v>
+        <v>14.257788618194489</v>
       </c>
       <c r="L35">
-        <v>12.799803902058581</v>
+        <v>12.799814000324341</v>
       </c>
       <c r="P35" t="s">
         <v>39</v>
@@ -1834,46 +1834,46 @@
         <v>11</v>
       </c>
       <c r="E36">
-        <v>27.06922559005898</v>
+        <v>27.069225590072104</v>
       </c>
       <c r="F36">
-        <v>27.044673520280682</v>
+        <v>27.04467351958855</v>
       </c>
       <c r="G36">
-        <v>27.753964827538795</v>
+        <v>27.753964827546465</v>
       </c>
       <c r="H36">
-        <v>20.698277758793452</v>
+        <v>20.698294508180282</v>
       </c>
       <c r="I36">
-        <v>1.4901718100338508</v>
+        <v>1.490171810061645</v>
       </c>
       <c r="J36">
-        <v>1.6170522160445355</v>
+        <v>1.6170500868523854</v>
       </c>
       <c r="K36">
-        <v>26.263793017504945</v>
+        <v>26.26379301748482</v>
       </c>
       <c r="L36">
-        <v>20.63501500631267</v>
+        <v>20.63503197390246</v>
       </c>
       <c r="O36" t="s">
         <v>36</v>
       </c>
       <c r="P36">
-        <v>47.090797981766464</v>
+        <v>47.09079798179234</v>
       </c>
       <c r="Q36" t="s">
         <v>11</v>
       </c>
       <c r="R36">
-        <v>53.46750864388074</v>
+        <v>53.467508643447175</v>
       </c>
       <c r="S36">
-        <v>56.37550904588442</v>
+        <v>56.375509045630736</v>
       </c>
       <c r="T36">
-        <v>36.53800698841169</v>
+        <v>36.538039475849075</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -1890,46 +1890,46 @@
         <v>11</v>
       </c>
       <c r="E37">
-        <v>34.858683372921725</v>
+        <v>34.85868337293558</v>
       </c>
       <c r="F37">
-        <v>34.38590207559307</v>
+        <v>34.38590207455222</v>
       </c>
       <c r="G37">
-        <v>36.068609683227386</v>
+        <v>36.068609683218185</v>
       </c>
       <c r="H37">
-        <v>24.65713575918473</v>
+        <v>24.65715593534762</v>
       </c>
       <c r="I37">
-        <v>2.5123815043437343</v>
+        <v>2.5123815043905946</v>
       </c>
       <c r="J37">
-        <v>2.7262977676755624</v>
+        <v>2.72629417792642</v>
       </c>
       <c r="K37">
-        <v>33.55622817888365</v>
+        <v>33.55622817882759</v>
       </c>
       <c r="L37">
-        <v>24.505951202286223</v>
+        <v>24.50597190228237</v>
       </c>
       <c r="O37" t="s">
         <v>37</v>
       </c>
       <c r="P37">
-        <v>1.5645557915410186</v>
+        <v>1.564555791541426</v>
       </c>
       <c r="Q37" t="s">
         <v>11</v>
       </c>
       <c r="R37">
-        <v>1.4131613430627752</v>
+        <v>1.4131613430577783</v>
       </c>
       <c r="S37">
-        <v>1.2701980369058568</v>
+        <v>1.2701980369147352</v>
       </c>
       <c r="T37">
-        <v>1.0561464656317066</v>
+        <v>1.05614718366892</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -1946,46 +1946,46 @@
         <v>11</v>
       </c>
       <c r="E38">
-        <v>40.740127788773435</v>
+        <v>40.740127788786445</v>
       </c>
       <c r="F38">
-        <v>39.42204748114153</v>
+        <v>39.42204747973668</v>
       </c>
       <c r="G38">
-        <v>42.102943849694974</v>
+        <v>42.10294384967578</v>
       </c>
       <c r="H38">
-        <v>27.201222279372143</v>
+        <v>27.201244389062005</v>
       </c>
       <c r="I38">
-        <v>3.6619951516912135</v>
+        <v>3.6619951517595157</v>
       </c>
       <c r="J38">
-        <v>3.9737950586060986</v>
+        <v>3.9737898262622315</v>
       </c>
       <c r="K38">
-        <v>38.44094869800376</v>
+        <v>38.44094869791627</v>
       </c>
       <c r="L38">
-        <v>26.909393273056327</v>
+        <v>26.909416395198388</v>
       </c>
       <c r="O38" t="s">
         <v>38</v>
       </c>
       <c r="P38">
-        <v>3.9028920792495376</v>
+        <v>3.9028920792446797</v>
       </c>
       <c r="Q38" t="s">
         <v>11</v>
       </c>
       <c r="R38">
-        <v>1.038025753802178</v>
+        <v>1.0380257531739931</v>
       </c>
       <c r="S38">
-        <v>2.170130444598836</v>
+        <v>2.1701304446393124</v>
       </c>
       <c r="T38">
-        <v>2.3549058040928483</v>
+        <v>2.3549027033599823</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -2002,28 +2002,28 @@
         <v>11</v>
       </c>
       <c r="E39">
-        <v>45.0994345351136</v>
+        <v>45.0994345351251</v>
       </c>
       <c r="F39">
-        <v>42.75567589493956</v>
+        <v>42.75567589319267</v>
       </c>
       <c r="G39">
-        <v>46.3143398048488</v>
+        <v>46.31433980482751</v>
       </c>
       <c r="H39">
-        <v>28.882295651488572</v>
+        <v>28.88231867730595</v>
       </c>
       <c r="I39">
-        <v>4.780962733391114</v>
+        <v>4.780962733480287</v>
       </c>
       <c r="J39">
-        <v>5.188036930238817</v>
+        <v>5.188030099088037</v>
       </c>
       <c r="K39">
-        <v>41.533377071457686</v>
+        <v>41.533377071347225</v>
       </c>
       <c r="L39">
-        <v>28.41251968605519</v>
+        <v>28.41254433992867</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -2040,28 +2040,28 @@
         <v>11</v>
       </c>
       <c r="E40">
-        <v>49.5370371549829</v>
+        <v>49.537037154992056</v>
       </c>
       <c r="F40">
-        <v>45.75883420764151</v>
+        <v>45.75883420547888</v>
       </c>
       <c r="G40">
-        <v>50.314093796399305</v>
+        <v>50.31409379638262</v>
       </c>
       <c r="H40">
-        <v>30.444202035016183</v>
+        <v>30.44422542287297</v>
       </c>
       <c r="I40">
-        <v>6.167625334649062</v>
+        <v>6.167625334764098</v>
       </c>
       <c r="J40">
-        <v>6.6927666648721065</v>
+        <v>6.692757852425542</v>
       </c>
       <c r="K40">
-        <v>44.146468461750246</v>
+        <v>44.146468461618525</v>
       </c>
       <c r="L40">
-        <v>29.6994328551651</v>
+        <v>29.699458815397648</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -2078,28 +2078,28 @@
         <v>11</v>
       </c>
       <c r="E41">
-        <v>51.72441251105736</v>
+        <v>51.72441251106509</v>
       </c>
       <c r="F41">
-        <v>47.097431931326</v>
+        <v>47.09743192893442</v>
       </c>
       <c r="G41">
-        <v>52.175551498255906</v>
+        <v>52.17555149824423</v>
       </c>
       <c r="H41">
-        <v>31.169184202814062</v>
+        <v>31.169207533645153</v>
       </c>
       <c r="I41">
-        <v>6.938662312731765</v>
+        <v>6.938662312861182</v>
       </c>
       <c r="J41">
-        <v>7.5294534453263635</v>
+        <v>7.529443531204228</v>
       </c>
       <c r="K41">
-        <v>45.23688918552414</v>
+        <v>45.23688918538305</v>
       </c>
       <c r="L41">
-        <v>30.24608031933422</v>
+        <v>30.246106830232687</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -2168,28 +2168,28 @@
         <v>11</v>
       </c>
       <c r="E46">
-        <v>11.72278087231121</v>
+        <v>11.72278087236752</v>
       </c>
       <c r="F46">
-        <v>12.565411692865421</v>
+        <v>12.565411692672448</v>
       </c>
       <c r="G46">
-        <v>11.75347989156424</v>
+        <v>11.753479891659634</v>
       </c>
       <c r="H46">
-        <v>10.628976678148193</v>
+        <v>10.628985028585575</v>
       </c>
       <c r="I46">
-        <v>0.2735860034789974</v>
+        <v>0.27358600348386314</v>
       </c>
       <c r="J46">
-        <v>0.29196521073858106</v>
+        <v>0.29196483321158867</v>
       </c>
       <c r="K46">
-        <v>11.479893888085241</v>
+        <v>11.47989388817577</v>
       </c>
       <c r="L46">
-        <v>10.624965954784823</v>
+        <v>10.624974318748446</v>
       </c>
       <c r="P46" t="s">
         <v>39</v>
@@ -2221,46 +2221,46 @@
         <v>11</v>
       </c>
       <c r="E47">
-        <v>22.58716526074974</v>
+        <v>22.587165260810366</v>
       </c>
       <c r="F47">
-        <v>23.60160267492276</v>
+        <v>23.6016026744518</v>
       </c>
       <c r="G47">
-        <v>22.798501314930938</v>
+        <v>22.798501315052736</v>
       </c>
       <c r="H47">
-        <v>18.279611714788654</v>
+        <v>18.279626544280294</v>
       </c>
       <c r="I47">
-        <v>0.690293167640063</v>
+        <v>0.6902931676523398</v>
       </c>
       <c r="J47">
-        <v>0.7366663045571537</v>
+        <v>0.7366653520073152</v>
       </c>
       <c r="K47">
-        <v>22.108208147290874</v>
+        <v>22.108208147400397</v>
       </c>
       <c r="L47">
-        <v>18.26476189823368</v>
+        <v>18.26477677820095</v>
       </c>
       <c r="O47" t="s">
         <v>36</v>
       </c>
       <c r="P47">
-        <v>48.60965068590119</v>
+        <v>48.60965068557774</v>
       </c>
       <c r="Q47" t="s">
         <v>11</v>
       </c>
       <c r="R47">
-        <v>53.31750864388074</v>
+        <v>53.31750864344718</v>
       </c>
       <c r="S47">
-        <v>56.37550904556706</v>
+        <v>56.37550904531338</v>
       </c>
       <c r="T47">
-        <v>37.377612131588975</v>
+        <v>37.37764537623804</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -2277,46 +2277,46 @@
         <v>11</v>
       </c>
       <c r="E48">
-        <v>30.461405343236827</v>
+        <v>30.461405343282745</v>
       </c>
       <c r="F48">
-        <v>31.048280885586344</v>
+        <v>31.04828088481758</v>
       </c>
       <c r="G48">
-        <v>30.659865439574585</v>
+        <v>30.6598654396815</v>
       </c>
       <c r="H48">
-        <v>22.66776110319158</v>
+        <v>22.667779908713236</v>
       </c>
       <c r="I48">
-        <v>1.1733032581100271</v>
+        <v>1.1733032581308942</v>
       </c>
       <c r="J48">
-        <v>1.2521244824597015</v>
+        <v>1.2521228633942358</v>
       </c>
       <c r="K48">
-        <v>29.486562181464556</v>
+        <v>29.486562181550607</v>
       </c>
       <c r="L48">
-        <v>22.633152182402483</v>
+        <v>22.63317110625086</v>
       </c>
       <c r="O48" t="s">
         <v>37</v>
       </c>
       <c r="P48">
-        <v>1.051254108426428</v>
+        <v>1.0512541084406353</v>
       </c>
       <c r="Q48" t="s">
         <v>11</v>
       </c>
       <c r="R48">
-        <v>1.0952034152676606</v>
+        <v>1.095203415272709</v>
       </c>
       <c r="S48">
-        <v>0.9310244501189859</v>
+        <v>0.9310244501334659</v>
       </c>
       <c r="T48">
-        <v>0.7549621182984619</v>
+        <v>0.7549626312479294</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -2333,46 +2333,46 @@
         <v>11</v>
       </c>
       <c r="E49">
-        <v>36.30857456902464</v>
+        <v>36.30857456905858</v>
       </c>
       <c r="F49">
-        <v>36.13962952106883</v>
+        <v>36.139629519999055</v>
       </c>
       <c r="G49">
-        <v>36.22952538288672</v>
+        <v>36.229525382969484</v>
       </c>
       <c r="H49">
-        <v>25.402865095386634</v>
+        <v>25.402886436320482</v>
       </c>
       <c r="I49">
-        <v>1.6921322942687629</v>
+        <v>1.6921322942988573</v>
       </c>
       <c r="J49">
-        <v>1.8058078834857665</v>
+        <v>1.8058055484773685</v>
       </c>
       <c r="K49">
-        <v>34.53739308861796</v>
+        <v>34.537393088670626</v>
       </c>
       <c r="L49">
-        <v>25.3385992695404</v>
+        <v>25.338620831009795</v>
       </c>
       <c r="O49" t="s">
         <v>38</v>
       </c>
       <c r="P49">
-        <v>3.0307585746321304</v>
+        <v>3.0307585746851746</v>
       </c>
       <c r="Q49" t="s">
         <v>11</v>
       </c>
       <c r="R49">
-        <v>0.8606356429158272</v>
+        <v>0.8606356424191699</v>
       </c>
       <c r="S49">
-        <v>0.9961414564943308</v>
+        <v>0.9961414565120471</v>
       </c>
       <c r="T49">
-        <v>1.0630611455718397</v>
+        <v>1.063059770975613</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -2389,28 +2389,28 @@
         <v>11</v>
       </c>
       <c r="E50">
-        <v>40.65824060500031</v>
+        <v>40.65824060502962</v>
       </c>
       <c r="F50">
-        <v>39.614344443736414</v>
+        <v>39.61434444238443</v>
       </c>
       <c r="G50">
-        <v>40.11964680176159</v>
+        <v>40.119646801823116</v>
       </c>
       <c r="H50">
-        <v>27.183711724178</v>
+        <v>27.183734677444065</v>
       </c>
       <c r="I50">
-        <v>2.1985682927293113</v>
+        <v>2.1985682927684125</v>
       </c>
       <c r="J50">
-        <v>2.346265696151204</v>
+        <v>2.346262662301283</v>
       </c>
       <c r="K50">
-        <v>37.92107850903228</v>
+        <v>37.9210785090547</v>
       </c>
       <c r="L50">
-        <v>27.082267637446396</v>
+        <v>27.082290939526626</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -2427,28 +2427,28 @@
         <v>11</v>
       </c>
       <c r="E51">
-        <v>44.24218814178458</v>
+        <v>44.24218814181531</v>
       </c>
       <c r="F51">
-        <v>42.24726657905362</v>
+        <v>42.247266577425684</v>
       </c>
       <c r="G51">
-        <v>43.11249470205643</v>
+        <v>43.112494702100776</v>
       </c>
       <c r="H51">
-        <v>28.498393814475953</v>
+        <v>28.498417887836236</v>
       </c>
       <c r="I51">
-        <v>2.7070342511611574</v>
+        <v>2.7070342512093015</v>
       </c>
       <c r="J51">
-        <v>2.888889839269494</v>
+        <v>2.8888861037768665</v>
       </c>
       <c r="K51">
-        <v>40.405460450895276</v>
+        <v>40.405460450891475</v>
       </c>
       <c r="L51">
-        <v>28.351591939457766</v>
+        <v>28.351616518095565</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -2465,28 +2465,28 @@
         <v>11</v>
       </c>
       <c r="E52">
-        <v>46.84013496690142</v>
+        <v>46.840134966937015</v>
       </c>
       <c r="F52">
-        <v>44.019149788211884</v>
+        <v>44.019149786357914</v>
       </c>
       <c r="G52">
-        <v>45.146581645159536</v>
+        <v>45.1465816451926</v>
       </c>
       <c r="H52">
-        <v>29.368152831642973</v>
+        <v>29.36817758451233</v>
       </c>
       <c r="I52">
-        <v>3.130637451597886</v>
+        <v>3.130637451653564</v>
       </c>
       <c r="J52">
-        <v>3.340950237507452</v>
+        <v>3.340945917475995</v>
       </c>
       <c r="K52">
-        <v>42.01594419356165</v>
+        <v>42.015944193539035</v>
       </c>
       <c r="L52">
-        <v>29.177499074684896</v>
+        <v>29.177524483957736</v>
       </c>
     </row>
   </sheetData>

--- a/test/writer_output/Vant Hoff Dual Mode Analysis.xlsx
+++ b/test/writer_output/Vant Hoff Dual Mode Analysis.xlsx
@@ -597,64 +597,64 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>56.54900864344717</v>
+        <v>56.54900864388074</v>
       </c>
       <c r="C2">
-        <v>56.37550905215042</v>
+        <v>56.3755090524041</v>
       </c>
       <c r="D2">
-        <v>26.69671513052792</v>
+        <v>26.696691543410203</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>712.7145987605584</v>
+        <v>712.7133393639899</v>
       </c>
       <c r="H2">
-        <v>0.022003852022244</v>
+        <v>0.02200381530360596</v>
       </c>
       <c r="I2">
-        <v>2.049458814298015e-6</v>
+        <v>2.0494538360154946e-6</v>
       </c>
       <c r="J2">
-        <v>-2.161163857439426</v>
+        <v>-2.1611600123703005</v>
       </c>
       <c r="K2">
-        <v>39361.61941443408</v>
+        <v>39361.55391917571</v>
       </c>
       <c r="L2">
-        <v>53996.01104513996</v>
+        <v>53995.886843871784</v>
       </c>
       <c r="O2">
         <v>0.003411222923418046</v>
       </c>
       <c r="P2">
-        <v>56.54900864344717</v>
+        <v>56.54900864388074</v>
       </c>
       <c r="Q2">
-        <v>0.6153752142525408</v>
+        <v>0.6153752142343902</v>
       </c>
       <c r="R2">
-        <v>1.6148376886502387</v>
+        <v>1.6148376886362221</v>
       </c>
       <c r="S2">
-        <v>53.617508643447174</v>
+        <v>53.61750864388074</v>
       </c>
       <c r="T2">
-        <v>0.6268029637286191</v>
+        <v>0.6268029637411336</v>
       </c>
       <c r="U2">
-        <v>0.24390360324882984</v>
+        <v>0.24390360388496832</v>
       </c>
       <c r="V2">
-        <v>56.3755090459481</v>
+        <v>56.37550904620178</v>
       </c>
       <c r="W2">
-        <v>0.581605516535487</v>
+        <v>0.5816055165379357</v>
       </c>
       <c r="X2">
-        <v>1.6331253619288049</v>
+        <v>1.633125361909201</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -662,64 +662,64 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.005826533576832283</v>
+        <v>0.0058265335758304814</v>
       </c>
       <c r="C3">
-        <v>0.0015756246956183683</v>
+        <v>0.0015756246953167144</v>
       </c>
       <c r="D3">
-        <v>0.0008891992682263319</v>
+        <v>0.000889198672361785</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
       <c r="G3">
-        <v>0.022003852022244</v>
+        <v>0.02200381530360596</v>
       </c>
       <c r="H3">
-        <v>7.906753386142442e-7</v>
+        <v>7.90674278929961e-7</v>
       </c>
       <c r="I3">
-        <v>7.772221661172754e-11</v>
+        <v>7.772206599551268e-11</v>
       </c>
       <c r="J3">
-        <v>-6.716279864215835e-5</v>
+        <v>-6.716268643128206e-5</v>
       </c>
       <c r="K3">
-        <v>1.3888230384628588</v>
+        <v>1.388821148821613</v>
       </c>
       <c r="L3">
-        <v>1.9599390789591322</v>
+        <v>1.9599353415375045</v>
       </c>
       <c r="O3">
         <v>0.003331667499583542</v>
       </c>
       <c r="P3">
-        <v>56.49580289155446</v>
+        <v>56.49580288933426</v>
       </c>
       <c r="Q3">
-        <v>0.44279845818538205</v>
+        <v>0.4427984582369638</v>
       </c>
       <c r="R3">
-        <v>1.1730617303115607</v>
+        <v>1.1730617304624487</v>
       </c>
       <c r="S3">
-        <v>53.54750864344717</v>
+        <v>53.54750864388074</v>
       </c>
       <c r="T3">
-        <v>0.49218709825995427</v>
+        <v>0.4921870982681673</v>
       </c>
       <c r="U3">
-        <v>0.14492867330466272</v>
+        <v>0.14492867392596484</v>
       </c>
       <c r="V3">
-        <v>56.3755090458</v>
+        <v>56.37550904605368</v>
       </c>
       <c r="W3">
-        <v>0.4175443378309271</v>
+        <v>0.41754433782885325</v>
       </c>
       <c r="X3">
-        <v>1.2218913871611967</v>
+        <v>1.2218913871420511</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -733,58 +733,58 @@
         <v>1.1253517483185387e-7</v>
       </c>
       <c r="D4">
-        <v>9.753088399320308e-8</v>
+        <v>9.753097383440377e-8</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
       </c>
       <c r="G4">
-        <v>2.049458814298015e-6</v>
+        <v>2.0494538360154946e-6</v>
       </c>
       <c r="H4">
-        <v>7.772221661172754e-11</v>
+        <v>7.772206599551268e-11</v>
       </c>
       <c r="I4">
-        <v>-9.512273332495637e-15</v>
+        <v>-9.512290857087154e-15</v>
       </c>
       <c r="J4">
-        <v>-5.91298658208986e-9</v>
+        <v>-5.912971423922889e-9</v>
       </c>
       <c r="K4">
-        <v>0.00014260185789952503</v>
+        <v>0.00014260158922025067</v>
       </c>
       <c r="L4">
-        <v>-0.00017077913807753546</v>
+        <v>-0.00017077958317443596</v>
       </c>
       <c r="O4">
         <v>0.0032451728054518907</v>
       </c>
       <c r="P4">
-        <v>47.09079798179234</v>
+        <v>47.090797981766464</v>
       </c>
       <c r="Q4">
-        <v>0.4476019444314724</v>
+        <v>0.447601944431212</v>
       </c>
       <c r="R4">
-        <v>1.3617178370974297</v>
+        <v>1.3617178370986744</v>
       </c>
       <c r="S4">
-        <v>53.467508643447175</v>
+        <v>53.46750864388074</v>
       </c>
       <c r="T4">
-        <v>0.34582928193807383</v>
+        <v>0.34582928194160983</v>
       </c>
       <c r="U4">
-        <v>0.037320594815494025</v>
+        <v>0.037320595420666715</v>
       </c>
       <c r="V4">
-        <v>56.375509045630736</v>
+        <v>56.37550904588442</v>
       </c>
       <c r="W4">
-        <v>0.23917282289249892</v>
+        <v>0.2391728228855091</v>
       </c>
       <c r="X4">
-        <v>0.7747872784826804</v>
+        <v>0.7747872784640286</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -795,61 +795,61 @@
         <v>-0.01</v>
       </c>
       <c r="C5">
-        <v>-2.1157493909316082e-11</v>
+        <v>-2.1157487650743913e-11</v>
       </c>
       <c r="D5">
-        <v>0.08095478418561232</v>
+        <v>0.08095471168451995</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
       <c r="G5">
-        <v>-2.161163857439426</v>
+        <v>-2.1611600123703005</v>
       </c>
       <c r="H5">
-        <v>-6.716279864215835e-5</v>
+        <v>-6.716268643128206e-5</v>
       </c>
       <c r="I5">
-        <v>-5.91298658208986e-9</v>
+        <v>-5.912971423922889e-9</v>
       </c>
       <c r="J5">
-        <v>0.006553677082539066</v>
+        <v>0.006553665343923752</v>
       </c>
       <c r="K5">
-        <v>-120.01324791011729</v>
+        <v>-120.01304775859707</v>
       </c>
       <c r="L5">
-        <v>-157.13686683309874</v>
+        <v>-157.13648850763468</v>
       </c>
       <c r="O5">
         <v>0.0030945381401825778</v>
       </c>
       <c r="P5">
-        <v>48.60965068557774</v>
+        <v>48.60965068590119</v>
       </c>
       <c r="Q5">
-        <v>0.04998384044543179</v>
+        <v>0.04998384043191716</v>
       </c>
       <c r="R5">
-        <v>1.1088129428693498</v>
+        <v>1.1088129428518478</v>
       </c>
       <c r="S5">
-        <v>53.31750864344718</v>
+        <v>53.31750864388074</v>
       </c>
       <c r="T5">
-        <v>0.09094011338817946</v>
+        <v>0.0909401133835699</v>
       </c>
       <c r="U5">
-        <v>-0.15008404365652345</v>
+        <v>-0.15008404307944154</v>
       </c>
       <c r="V5">
-        <v>56.37550904531338</v>
+        <v>56.37550904556706</v>
       </c>
       <c r="W5">
-        <v>-0.07146973982277777</v>
+        <v>-0.0714697398383305</v>
       </c>
       <c r="X5">
-        <v>-0.0038660068715899226</v>
+        <v>-0.0038660068893748194</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -857,34 +857,34 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-14068.916075136634</v>
+        <v>-14068.916075586216</v>
       </c>
       <c r="C6">
-        <v>-17146.29212794934</v>
+        <v>-17146.292128421945</v>
       </c>
       <c r="D6">
-        <v>1564.5090109994653</v>
+        <v>1564.5079340789284</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
       <c r="G6">
-        <v>39361.61941443408</v>
+        <v>39361.55391917571</v>
       </c>
       <c r="H6">
-        <v>1.3888230384628588</v>
+        <v>1.388821148821613</v>
       </c>
       <c r="I6">
-        <v>0.00014260185789952503</v>
+        <v>0.00014260158922025067</v>
       </c>
       <c r="J6">
-        <v>-120.01324791011729</v>
+        <v>-120.01304775859707</v>
       </c>
       <c r="K6">
-        <v>2.447688445498525e6</v>
+        <v>2.447685075795917e6</v>
       </c>
       <c r="L6">
-        <v>3.588262846906604e6</v>
+        <v>3.5882561798935835e6</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -892,34 +892,34 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>-10344.025780907301</v>
+        <v>-10344.025782457815</v>
       </c>
       <c r="C7">
-        <v>-42978.71025906006</v>
+        <v>-42978.71025901228</v>
       </c>
       <c r="D7">
-        <v>1673.071830103389</v>
+        <v>1673.0751988686145</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
       </c>
       <c r="G7">
-        <v>53996.01104513996</v>
+        <v>53995.886843871784</v>
       </c>
       <c r="H7">
-        <v>1.9599390789591322</v>
+        <v>1.9599353415375045</v>
       </c>
       <c r="I7">
-        <v>-0.00017077913807753546</v>
+        <v>-0.00017077958317443596</v>
       </c>
       <c r="J7">
-        <v>-157.13686683309874</v>
+        <v>-157.13648850763468</v>
       </c>
       <c r="K7">
-        <v>3.588262846906604e6</v>
+        <v>3.5882561798935835e6</v>
       </c>
       <c r="L7">
-        <v>-2.799169348685503e6</v>
+        <v>-2.799180621069254e6</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -927,10 +927,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>880.6354173590803</v>
+        <v>880.6354168943415</v>
       </c>
       <c r="C8">
-        <v>13.659028161290298</v>
+        <v>13.659028161290296</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1007,28 +1007,28 @@
         <v>11</v>
       </c>
       <c r="E13">
-        <v>19.631238352368655</v>
+        <v>19.63123835226607</v>
       </c>
       <c r="F13">
-        <v>17.843507705762967</v>
+        <v>17.84350770626256</v>
       </c>
       <c r="G13">
-        <v>19.184499345795743</v>
+        <v>19.184499345879964</v>
       </c>
       <c r="H13">
-        <v>15.457052168805879</v>
+        <v>15.4570402076668</v>
       </c>
       <c r="I13">
-        <v>1.3268764026512212</v>
+        <v>1.3268764026252091</v>
       </c>
       <c r="J13">
-        <v>1.4669582830996057</v>
+        <v>1.4669602520892757</v>
       </c>
       <c r="K13">
-        <v>17.857622943144523</v>
+        <v>17.857622943254754</v>
       </c>
       <c r="L13">
-        <v>15.387283553143225</v>
+        <v>15.387271350054833</v>
       </c>
       <c r="P13" t="s">
         <v>39</v>
@@ -1060,46 +1060,46 @@
         <v>11</v>
       </c>
       <c r="E14">
-        <v>34.94491054017971</v>
+        <v>34.944910540120226</v>
       </c>
       <c r="F14">
-        <v>30.90850225453375</v>
+        <v>30.908502255494632</v>
       </c>
       <c r="G14">
-        <v>34.4408200937612</v>
+        <v>34.440820093866336</v>
       </c>
       <c r="H14">
-        <v>23.277974949446104</v>
+        <v>23.277956956997443</v>
       </c>
       <c r="I14">
-        <v>3.4852476495533957</v>
+        <v>3.4852476494850713</v>
       </c>
       <c r="J14">
-        <v>3.8531945386549302</v>
+        <v>3.853199710513142</v>
       </c>
       <c r="K14">
-        <v>30.9555724442078</v>
+        <v>30.955572444381264</v>
       </c>
       <c r="L14">
-        <v>22.95685103829182</v>
+        <v>22.956831926089606</v>
       </c>
       <c r="O14" t="s">
         <v>36</v>
       </c>
       <c r="P14">
-        <v>56.54900864344717</v>
+        <v>56.54900864388074</v>
       </c>
       <c r="Q14" t="s">
         <v>11</v>
       </c>
       <c r="R14">
-        <v>53.617508643447174</v>
+        <v>53.61750864388074</v>
       </c>
       <c r="S14">
-        <v>56.3755090459481</v>
+        <v>56.37550904620178</v>
       </c>
       <c r="T14">
-        <v>35.719986538249756</v>
+        <v>35.719954788824985</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1116,46 +1116,46 @@
         <v>11</v>
       </c>
       <c r="E15">
-        <v>44.30166683515474</v>
+        <v>44.30166683514569</v>
       </c>
       <c r="F15">
-        <v>38.11293244965033</v>
+        <v>38.112932451028044</v>
       </c>
       <c r="G15">
-        <v>43.874378815467075</v>
+        <v>43.87437881555255</v>
       </c>
       <c r="H15">
-        <v>27.086195497064722</v>
+        <v>27.086175795697912</v>
       </c>
       <c r="I15">
-        <v>5.904266621139535</v>
+        <v>5.904266621023788</v>
       </c>
       <c r="J15">
-        <v>6.527595794305379</v>
+        <v>6.527604555814712</v>
       </c>
       <c r="K15">
-        <v>37.97011219432754</v>
+        <v>37.97011219452876</v>
       </c>
       <c r="L15">
-        <v>26.28787704725081</v>
+        <v>26.287854571995002</v>
       </c>
       <c r="O15" t="s">
         <v>37</v>
       </c>
       <c r="P15">
-        <v>1.850350747295706</v>
+        <v>1.850350747262121</v>
       </c>
       <c r="Q15" t="s">
         <v>11</v>
       </c>
       <c r="R15">
-        <v>1.8716173754885639</v>
+        <v>1.8716173755119863</v>
       </c>
       <c r="S15">
-        <v>1.7889082481368352</v>
+        <v>1.7889082481412157</v>
       </c>
       <c r="T15">
-        <v>1.52896500962448</v>
+        <v>1.528963969454407</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1172,46 +1172,46 @@
         <v>11</v>
       </c>
       <c r="E16">
-        <v>51.244703353190715</v>
+        <v>51.244703353211406</v>
       </c>
       <c r="F16">
-        <v>42.832726311798346</v>
+        <v>42.832726313615055</v>
       </c>
       <c r="G16">
-        <v>50.91590611937728</v>
+        <v>50.915906119424776</v>
       </c>
       <c r="H16">
-        <v>29.842665240631028</v>
+        <v>29.842646054629846</v>
       </c>
       <c r="I16">
-        <v>8.607655410349404</v>
+        <v>8.607655410180659</v>
       </c>
       <c r="J16">
-        <v>9.516388547606349</v>
+        <v>9.516401320751273</v>
       </c>
       <c r="K16">
-        <v>42.30825070902788</v>
+        <v>42.30825070924412</v>
       </c>
       <c r="L16">
-        <v>28.28467814339336</v>
+        <v>28.28465360304626</v>
       </c>
       <c r="O16" t="s">
         <v>38</v>
       </c>
       <c r="P16">
-        <v>5.027071906419649</v>
+        <v>5.027071906349186</v>
       </c>
       <c r="Q16" t="s">
         <v>11</v>
       </c>
       <c r="R16">
-        <v>1.2762213009725392</v>
+        <v>1.2762213017843926</v>
       </c>
       <c r="S16">
-        <v>5.119851127296634</v>
+        <v>5.119851127196265</v>
       </c>
       <c r="T16">
-        <v>5.660367464835281</v>
+        <v>5.660375062328131</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1228,28 +1228,28 @@
         <v>11</v>
       </c>
       <c r="E17">
-        <v>56.73717234250037</v>
+        <v>56.73717234253107</v>
       </c>
       <c r="F17">
-        <v>46.10503328813593</v>
+        <v>46.105033290401565</v>
       </c>
       <c r="G17">
-        <v>56.50256493342812</v>
+        <v>56.50256493342916</v>
       </c>
       <c r="H17">
-        <v>32.17021682512751</v>
+        <v>32.170199676987615</v>
       </c>
       <c r="I17">
-        <v>11.422375981824326</v>
+        <v>11.422375981600402</v>
       </c>
       <c r="J17">
-        <v>12.628266676334627</v>
+        <v>12.628283626323542</v>
       </c>
       <c r="K17">
-        <v>45.080188951603795</v>
+        <v>45.08018895182876</v>
       </c>
       <c r="L17">
-        <v>29.587999785843813</v>
+        <v>29.587973906815296</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -1266,28 +1266,28 @@
         <v>11</v>
       </c>
       <c r="E18">
-        <v>60.89954735068476</v>
+        <v>60.89954735071279</v>
       </c>
       <c r="F18">
-        <v>48.31110246883658</v>
+        <v>48.31110247150444</v>
       </c>
       <c r="G18">
-        <v>60.74187605124479</v>
+        <v>60.74187605120115</v>
       </c>
       <c r="H18">
-        <v>34.10432839610455</v>
+        <v>34.10431394553936</v>
       </c>
       <c r="I18">
-        <v>13.95858033826712</v>
+        <v>13.958580337993476</v>
       </c>
       <c r="J18">
-        <v>15.43222489044044</v>
+        <v>15.432245603975204</v>
       </c>
       <c r="K18">
-        <v>46.78329571297767</v>
+        <v>46.78329571320768</v>
       </c>
       <c r="L18">
-        <v>30.413017776607003</v>
+        <v>30.412991061625263</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -1304,28 +1304,28 @@
         <v>11</v>
       </c>
       <c r="E19">
-        <v>64.05827935625118</v>
+        <v>64.05827935627113</v>
       </c>
       <c r="F19">
-        <v>49.84110508409774</v>
+        <v>49.84110508710397</v>
       </c>
       <c r="G19">
-        <v>63.96076138966225</v>
+        <v>63.96076138957979</v>
       </c>
       <c r="H19">
-        <v>35.70115393304383</v>
+        <v>35.701142212945435</v>
       </c>
       <c r="I19">
-        <v>16.095994114561098</v>
+        <v>16.095994114245553</v>
       </c>
       <c r="J19">
-        <v>17.795291139324394</v>
+        <v>17.795315024628312</v>
       </c>
       <c r="K19">
-        <v>47.86476727510116</v>
+        <v>47.86476727533424</v>
       </c>
       <c r="L19">
-        <v>30.949959699773007</v>
+        <v>30.949932447150708</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -1394,28 +1394,28 @@
         <v>11</v>
       </c>
       <c r="E24">
-        <v>17.239689857645875</v>
+        <v>17.239689857729914</v>
       </c>
       <c r="F24">
-        <v>16.389648758980368</v>
+        <v>16.389648759391562</v>
       </c>
       <c r="G24">
-        <v>16.955579426081723</v>
+        <v>16.955579426113136</v>
       </c>
       <c r="H24">
-        <v>14.165223391641982</v>
+        <v>14.1652123326882</v>
       </c>
       <c r="I24">
-        <v>0.8907950217865485</v>
+        <v>0.8907950217694938</v>
       </c>
       <c r="J24">
-        <v>0.9760488156681055</v>
+        <v>0.9760501138928239</v>
       </c>
       <c r="K24">
-        <v>16.064784404295175</v>
+        <v>16.06478440434364</v>
       </c>
       <c r="L24">
-        <v>14.131556264069223</v>
+        <v>14.131545089101603</v>
       </c>
       <c r="P24" t="s">
         <v>39</v>
@@ -1447,46 +1447,46 @@
         <v>11</v>
       </c>
       <c r="E25">
-        <v>31.33990259318078</v>
+        <v>31.3399025930972</v>
       </c>
       <c r="F25">
-        <v>29.060353296706072</v>
+        <v>29.06035329753558</v>
       </c>
       <c r="G25">
-        <v>31.03274072790589</v>
+        <v>31.032740727961446</v>
       </c>
       <c r="H25">
-        <v>22.039197057304186</v>
+        <v>22.039179454119047</v>
       </c>
       <c r="I25">
-        <v>2.3200665543906362</v>
+        <v>2.320066554346217</v>
       </c>
       <c r="J25">
-        <v>2.542109191565262</v>
+        <v>2.5421125727783083</v>
       </c>
       <c r="K25">
-        <v>28.712674173515254</v>
+        <v>28.71267417361523</v>
       </c>
       <c r="L25">
-        <v>21.89209646856246</v>
+        <v>21.89207835446844</v>
       </c>
       <c r="O25" t="s">
         <v>36</v>
       </c>
       <c r="P25">
-        <v>56.49580289155446</v>
+        <v>56.49580288933426</v>
       </c>
       <c r="Q25" t="s">
         <v>11</v>
       </c>
       <c r="R25">
-        <v>53.54750864344717</v>
+        <v>53.54750864388074</v>
       </c>
       <c r="S25">
-        <v>56.3755090458</v>
+        <v>56.37550904605368</v>
       </c>
       <c r="T25">
-        <v>36.09896833130051</v>
+        <v>36.09893623994412</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -1503,46 +1503,46 @@
         <v>11</v>
       </c>
       <c r="E26">
-        <v>40.050762764184874</v>
+        <v>40.05076276399044</v>
       </c>
       <c r="F26">
-        <v>36.35922850390317</v>
+        <v>36.359228505116306</v>
       </c>
       <c r="G26">
-        <v>39.832291666013134</v>
+        <v>39.8322916660726</v>
       </c>
       <c r="H26">
-        <v>25.84805642460696</v>
+        <v>25.84803600878926</v>
       </c>
       <c r="I26">
-        <v>3.9221281964834374</v>
+        <v>3.922128196408346</v>
       </c>
       <c r="J26">
-        <v>4.297496604099174</v>
+        <v>4.2975023201209845</v>
       </c>
       <c r="K26">
-        <v>35.9101634695297</v>
+        <v>35.910163469664255</v>
       </c>
       <c r="L26">
-        <v>25.488302098559274</v>
+        <v>25.488280430821945</v>
       </c>
       <c r="O26" t="s">
         <v>37</v>
       </c>
       <c r="P26">
-        <v>1.5570584903228892</v>
+        <v>1.557058490403205</v>
       </c>
       <c r="Q26" t="s">
         <v>11</v>
       </c>
       <c r="R26">
-        <v>1.6358901627771691</v>
+        <v>1.6358901627906048</v>
       </c>
       <c r="S26">
-        <v>1.5182287173743847</v>
+        <v>1.518228717371236</v>
       </c>
       <c r="T26">
-        <v>1.2806368930123213</v>
+        <v>1.2806360220511142</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -1559,46 +1559,46 @@
         <v>11</v>
       </c>
       <c r="E27">
-        <v>46.36370574437168</v>
+        <v>46.36370574416823</v>
       </c>
       <c r="F27">
-        <v>41.25027144958293</v>
+        <v>41.25027145119813</v>
       </c>
       <c r="G27">
-        <v>46.26333987726997</v>
+        <v>46.26333987731921</v>
       </c>
       <c r="H27">
-        <v>28.38076511717151</v>
+        <v>28.38074364041015</v>
       </c>
       <c r="I27">
-        <v>5.722687943003965</v>
+        <v>5.7226879428944</v>
       </c>
       <c r="J27">
-        <v>6.270379439261829</v>
+        <v>6.270387779379097</v>
       </c>
       <c r="K27">
-        <v>40.540651934266</v>
+        <v>40.54065193442481</v>
       </c>
       <c r="L27">
-        <v>27.679417810419018</v>
+        <v>27.67939390013615</v>
       </c>
       <c r="O27" t="s">
         <v>38</v>
       </c>
       <c r="P27">
-        <v>3.231872628267463</v>
+        <v>3.2318726287551134</v>
       </c>
       <c r="Q27" t="s">
         <v>11</v>
       </c>
       <c r="R27">
-        <v>1.1559571167263996</v>
+        <v>1.1559571174445982</v>
       </c>
       <c r="S27">
-        <v>3.3936002794049944</v>
+        <v>3.393600279340022</v>
       </c>
       <c r="T27">
-        <v>3.7183857706356735</v>
+        <v>3.7183907163927326</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -1615,28 +1615,28 @@
         <v>11</v>
       </c>
       <c r="E28">
-        <v>50.87132332550211</v>
+        <v>50.87132332536687</v>
       </c>
       <c r="F28">
-        <v>44.46867003355328</v>
+        <v>44.4686700355504</v>
       </c>
       <c r="G28">
-        <v>50.88414637100584</v>
+        <v>50.884146371037225</v>
       </c>
       <c r="H28">
-        <v>30.17597584501977</v>
+        <v>30.17595444957221</v>
       </c>
       <c r="I28">
-        <v>7.4796800009598385</v>
+        <v>7.479680000816636</v>
       </c>
       <c r="J28">
-        <v>8.195524927689382</v>
+        <v>8.195535828407534</v>
       </c>
       <c r="K28">
-        <v>43.404466370046</v>
+        <v>43.40446637022059</v>
       </c>
       <c r="L28">
-        <v>29.041743910427254</v>
+        <v>29.041718603208473</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -1653,28 +1653,28 @@
         <v>11</v>
       </c>
       <c r="E29">
-        <v>54.40860657170006</v>
+        <v>54.408606571677204</v>
       </c>
       <c r="F29">
-        <v>46.810705621028845</v>
+        <v>46.810705623392515</v>
       </c>
       <c r="G29">
-        <v>54.52672398226131</v>
+        <v>54.52672398227108</v>
       </c>
       <c r="H29">
-        <v>31.62707833053274</v>
+        <v>31.627057691501037</v>
       </c>
       <c r="I29">
-        <v>9.185185339620661</v>
+        <v>9.185185339444805</v>
       </c>
       <c r="J29">
-        <v>10.064256145536724</v>
+        <v>10.064269531820168</v>
       </c>
       <c r="K29">
-        <v>45.34153864264065</v>
+        <v>45.34153864282627</v>
       </c>
       <c r="L29">
-        <v>29.98304240671183</v>
+        <v>29.98301614268336</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -1691,28 +1691,28 @@
         <v>11</v>
       </c>
       <c r="E30">
-        <v>57.02979501852705</v>
+        <v>57.02979501862478</v>
       </c>
       <c r="F30">
-        <v>48.43880023655</v>
+        <v>48.438800239225415</v>
       </c>
       <c r="G30">
-        <v>57.23465434266643</v>
+        <v>57.23465434265553</v>
       </c>
       <c r="H30">
-        <v>32.75027247706888</v>
+        <v>32.75025287491661</v>
       </c>
       <c r="I30">
-        <v>10.643609011725728</v>
+        <v>10.643609011521951</v>
       </c>
       <c r="J30">
-        <v>11.662258674834174</v>
+        <v>11.66227418659162</v>
       </c>
       <c r="K30">
-        <v>46.5910453309407</v>
+        <v>46.59104533113358</v>
       </c>
       <c r="L30">
-        <v>30.603464998648608</v>
+        <v>30.6034381102474</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -1781,28 +1781,28 @@
         <v>11</v>
       </c>
       <c r="E35">
-        <v>14.897563789634868</v>
+        <v>14.897563789626002</v>
       </c>
       <c r="F35">
-        <v>14.9045576999512</v>
+        <v>14.904557700274806</v>
       </c>
       <c r="G35">
-        <v>14.836153236194848</v>
+        <v>14.836153236173761</v>
       </c>
       <c r="H35">
-        <v>12.815191411907142</v>
+        <v>12.815181366229728</v>
       </c>
       <c r="I35">
-        <v>0.5783646180003592</v>
+        <v>0.5783646179895717</v>
       </c>
       <c r="J35">
-        <v>0.6276085411460969</v>
+        <v>0.6276093675269184</v>
       </c>
       <c r="K35">
-        <v>14.257788618194489</v>
+        <v>14.25778861818419</v>
       </c>
       <c r="L35">
-        <v>12.799814000324341</v>
+        <v>12.799803902058581</v>
       </c>
       <c r="P35" t="s">
         <v>39</v>
@@ -1834,46 +1834,46 @@
         <v>11</v>
       </c>
       <c r="E36">
-        <v>27.069225590072104</v>
+        <v>27.06922559005898</v>
       </c>
       <c r="F36">
-        <v>27.04467351958855</v>
+        <v>27.044673520280682</v>
       </c>
       <c r="G36">
-        <v>27.753964827546465</v>
+        <v>27.753964827538795</v>
       </c>
       <c r="H36">
-        <v>20.698294508180282</v>
+        <v>20.698277758793452</v>
       </c>
       <c r="I36">
-        <v>1.490171810061645</v>
+        <v>1.4901718100338508</v>
       </c>
       <c r="J36">
-        <v>1.6170500868523854</v>
+        <v>1.6170522160445355</v>
       </c>
       <c r="K36">
-        <v>26.26379301748482</v>
+        <v>26.263793017504945</v>
       </c>
       <c r="L36">
-        <v>20.63503197390246</v>
+        <v>20.63501500631267</v>
       </c>
       <c r="O36" t="s">
         <v>36</v>
       </c>
       <c r="P36">
-        <v>47.09079798179234</v>
+        <v>47.090797981766464</v>
       </c>
       <c r="Q36" t="s">
         <v>11</v>
       </c>
       <c r="R36">
-        <v>53.467508643447175</v>
+        <v>53.46750864388074</v>
       </c>
       <c r="S36">
-        <v>56.375509045630736</v>
+        <v>56.37550904588442</v>
       </c>
       <c r="T36">
-        <v>36.538039475849075</v>
+        <v>36.53800698841169</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -1890,46 +1890,46 @@
         <v>11</v>
       </c>
       <c r="E37">
-        <v>34.85868337293558</v>
+        <v>34.858683372921725</v>
       </c>
       <c r="F37">
-        <v>34.38590207455222</v>
+        <v>34.38590207559307</v>
       </c>
       <c r="G37">
-        <v>36.068609683218185</v>
+        <v>36.068609683227386</v>
       </c>
       <c r="H37">
-        <v>24.65715593534762</v>
+        <v>24.65713575918473</v>
       </c>
       <c r="I37">
-        <v>2.5123815043905946</v>
+        <v>2.5123815043437343</v>
       </c>
       <c r="J37">
-        <v>2.72629417792642</v>
+        <v>2.7262977676755624</v>
       </c>
       <c r="K37">
-        <v>33.55622817882759</v>
+        <v>33.55622817888365</v>
       </c>
       <c r="L37">
-        <v>24.50597190228237</v>
+        <v>24.505951202286223</v>
       </c>
       <c r="O37" t="s">
         <v>37</v>
       </c>
       <c r="P37">
-        <v>1.564555791541426</v>
+        <v>1.5645557915410186</v>
       </c>
       <c r="Q37" t="s">
         <v>11</v>
       </c>
       <c r="R37">
-        <v>1.4131613430577783</v>
+        <v>1.4131613430627752</v>
       </c>
       <c r="S37">
-        <v>1.2701980369147352</v>
+        <v>1.2701980369058568</v>
       </c>
       <c r="T37">
-        <v>1.05614718366892</v>
+        <v>1.0561464656317066</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -1946,46 +1946,46 @@
         <v>11</v>
       </c>
       <c r="E38">
-        <v>40.740127788786445</v>
+        <v>40.740127788773435</v>
       </c>
       <c r="F38">
-        <v>39.42204747973668</v>
+        <v>39.42204748114153</v>
       </c>
       <c r="G38">
-        <v>42.10294384967578</v>
+        <v>42.102943849694974</v>
       </c>
       <c r="H38">
-        <v>27.201244389062005</v>
+        <v>27.201222279372143</v>
       </c>
       <c r="I38">
-        <v>3.6619951517595157</v>
+        <v>3.6619951516912135</v>
       </c>
       <c r="J38">
-        <v>3.9737898262622315</v>
+        <v>3.9737950586060986</v>
       </c>
       <c r="K38">
-        <v>38.44094869791627</v>
+        <v>38.44094869800376</v>
       </c>
       <c r="L38">
-        <v>26.909416395198388</v>
+        <v>26.909393273056327</v>
       </c>
       <c r="O38" t="s">
         <v>38</v>
       </c>
       <c r="P38">
-        <v>3.9028920792446797</v>
+        <v>3.9028920792495376</v>
       </c>
       <c r="Q38" t="s">
         <v>11</v>
       </c>
       <c r="R38">
-        <v>1.0380257531739931</v>
+        <v>1.038025753802178</v>
       </c>
       <c r="S38">
-        <v>2.1701304446393124</v>
+        <v>2.170130444598836</v>
       </c>
       <c r="T38">
-        <v>2.3549027033599823</v>
+        <v>2.3549058040928483</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -2002,28 +2002,28 @@
         <v>11</v>
       </c>
       <c r="E39">
-        <v>45.0994345351251</v>
+        <v>45.0994345351136</v>
       </c>
       <c r="F39">
-        <v>42.75567589319267</v>
+        <v>42.75567589493956</v>
       </c>
       <c r="G39">
-        <v>46.31433980482751</v>
+        <v>46.3143398048488</v>
       </c>
       <c r="H39">
-        <v>28.88231867730595</v>
+        <v>28.882295651488572</v>
       </c>
       <c r="I39">
-        <v>4.780962733480287</v>
+        <v>4.780962733391114</v>
       </c>
       <c r="J39">
-        <v>5.188030099088037</v>
+        <v>5.188036930238817</v>
       </c>
       <c r="K39">
-        <v>41.533377071347225</v>
+        <v>41.533377071457686</v>
       </c>
       <c r="L39">
-        <v>28.41254433992867</v>
+        <v>28.41251968605519</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -2040,28 +2040,28 @@
         <v>11</v>
       </c>
       <c r="E40">
-        <v>49.537037154992056</v>
+        <v>49.5370371549829</v>
       </c>
       <c r="F40">
-        <v>45.75883420547888</v>
+        <v>45.75883420764151</v>
       </c>
       <c r="G40">
-        <v>50.31409379638262</v>
+        <v>50.314093796399305</v>
       </c>
       <c r="H40">
-        <v>30.44422542287297</v>
+        <v>30.444202035016183</v>
       </c>
       <c r="I40">
-        <v>6.167625334764098</v>
+        <v>6.167625334649062</v>
       </c>
       <c r="J40">
-        <v>6.692757852425542</v>
+        <v>6.6927666648721065</v>
       </c>
       <c r="K40">
-        <v>44.146468461618525</v>
+        <v>44.146468461750246</v>
       </c>
       <c r="L40">
-        <v>29.699458815397648</v>
+        <v>29.6994328551651</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -2078,28 +2078,28 @@
         <v>11</v>
       </c>
       <c r="E41">
-        <v>51.72441251106509</v>
+        <v>51.72441251105736</v>
       </c>
       <c r="F41">
-        <v>47.09743192893442</v>
+        <v>47.097431931326</v>
       </c>
       <c r="G41">
-        <v>52.17555149824423</v>
+        <v>52.175551498255906</v>
       </c>
       <c r="H41">
-        <v>31.169207533645153</v>
+        <v>31.169184202814062</v>
       </c>
       <c r="I41">
-        <v>6.938662312861182</v>
+        <v>6.938662312731765</v>
       </c>
       <c r="J41">
-        <v>7.529443531204228</v>
+        <v>7.5294534453263635</v>
       </c>
       <c r="K41">
-        <v>45.23688918538305</v>
+        <v>45.23688918552414</v>
       </c>
       <c r="L41">
-        <v>30.246106830232687</v>
+        <v>30.24608031933422</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -2168,28 +2168,28 @@
         <v>11</v>
       </c>
       <c r="E46">
-        <v>11.72278087236752</v>
+        <v>11.72278087231121</v>
       </c>
       <c r="F46">
-        <v>12.565411692672448</v>
+        <v>12.565411692865421</v>
       </c>
       <c r="G46">
-        <v>11.753479891659634</v>
+        <v>11.75347989156424</v>
       </c>
       <c r="H46">
-        <v>10.628985028585575</v>
+        <v>10.628976678148193</v>
       </c>
       <c r="I46">
-        <v>0.27358600348386314</v>
+        <v>0.2735860034789974</v>
       </c>
       <c r="J46">
-        <v>0.29196483321158867</v>
+        <v>0.29196521073858106</v>
       </c>
       <c r="K46">
-        <v>11.47989388817577</v>
+        <v>11.479893888085241</v>
       </c>
       <c r="L46">
-        <v>10.624974318748446</v>
+        <v>10.624965954784823</v>
       </c>
       <c r="P46" t="s">
         <v>39</v>
@@ -2221,46 +2221,46 @@
         <v>11</v>
       </c>
       <c r="E47">
-        <v>22.587165260810366</v>
+        <v>22.58716526074974</v>
       </c>
       <c r="F47">
-        <v>23.6016026744518</v>
+        <v>23.60160267492276</v>
       </c>
       <c r="G47">
-        <v>22.798501315052736</v>
+        <v>22.798501314930938</v>
       </c>
       <c r="H47">
-        <v>18.279626544280294</v>
+        <v>18.279611714788654</v>
       </c>
       <c r="I47">
-        <v>0.6902931676523398</v>
+        <v>0.690293167640063</v>
       </c>
       <c r="J47">
-        <v>0.7366653520073152</v>
+        <v>0.7366663045571537</v>
       </c>
       <c r="K47">
-        <v>22.108208147400397</v>
+        <v>22.108208147290874</v>
       </c>
       <c r="L47">
-        <v>18.26477677820095</v>
+        <v>18.26476189823368</v>
       </c>
       <c r="O47" t="s">
         <v>36</v>
       </c>
       <c r="P47">
-        <v>48.60965068557774</v>
+        <v>48.60965068590119</v>
       </c>
       <c r="Q47" t="s">
         <v>11</v>
       </c>
       <c r="R47">
-        <v>53.31750864344718</v>
+        <v>53.31750864388074</v>
       </c>
       <c r="S47">
-        <v>56.37550904531338</v>
+        <v>56.37550904556706</v>
       </c>
       <c r="T47">
-        <v>37.37764537623804</v>
+        <v>37.377612131588975</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -2277,46 +2277,46 @@
         <v>11</v>
       </c>
       <c r="E48">
-        <v>30.461405343282745</v>
+        <v>30.461405343236827</v>
       </c>
       <c r="F48">
-        <v>31.04828088481758</v>
+        <v>31.048280885586344</v>
       </c>
       <c r="G48">
-        <v>30.6598654396815</v>
+        <v>30.659865439574585</v>
       </c>
       <c r="H48">
-        <v>22.667779908713236</v>
+        <v>22.66776110319158</v>
       </c>
       <c r="I48">
-        <v>1.1733032581308942</v>
+        <v>1.1733032581100271</v>
       </c>
       <c r="J48">
-        <v>1.2521228633942358</v>
+        <v>1.2521244824597015</v>
       </c>
       <c r="K48">
-        <v>29.486562181550607</v>
+        <v>29.486562181464556</v>
       </c>
       <c r="L48">
-        <v>22.63317110625086</v>
+        <v>22.633152182402483</v>
       </c>
       <c r="O48" t="s">
         <v>37</v>
       </c>
       <c r="P48">
-        <v>1.0512541084406353</v>
+        <v>1.051254108426428</v>
       </c>
       <c r="Q48" t="s">
         <v>11</v>
       </c>
       <c r="R48">
-        <v>1.095203415272709</v>
+        <v>1.0952034152676606</v>
       </c>
       <c r="S48">
-        <v>0.9310244501334659</v>
+        <v>0.9310244501189859</v>
       </c>
       <c r="T48">
-        <v>0.7549626312479294</v>
+        <v>0.7549621182984619</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -2333,46 +2333,46 @@
         <v>11</v>
       </c>
       <c r="E49">
-        <v>36.30857456905858</v>
+        <v>36.30857456902464</v>
       </c>
       <c r="F49">
-        <v>36.139629519999055</v>
+        <v>36.13962952106883</v>
       </c>
       <c r="G49">
-        <v>36.229525382969484</v>
+        <v>36.22952538288672</v>
       </c>
       <c r="H49">
-        <v>25.402886436320482</v>
+        <v>25.402865095386634</v>
       </c>
       <c r="I49">
-        <v>1.6921322942988573</v>
+        <v>1.6921322942687629</v>
       </c>
       <c r="J49">
-        <v>1.8058055484773685</v>
+        <v>1.8058078834857665</v>
       </c>
       <c r="K49">
-        <v>34.537393088670626</v>
+        <v>34.53739308861796</v>
       </c>
       <c r="L49">
-        <v>25.338620831009795</v>
+        <v>25.3385992695404</v>
       </c>
       <c r="O49" t="s">
         <v>38</v>
       </c>
       <c r="P49">
-        <v>3.0307585746851746</v>
+        <v>3.0307585746321304</v>
       </c>
       <c r="Q49" t="s">
         <v>11</v>
       </c>
       <c r="R49">
-        <v>0.8606356424191699</v>
+        <v>0.8606356429158272</v>
       </c>
       <c r="S49">
-        <v>0.9961414565120471</v>
+        <v>0.9961414564943308</v>
       </c>
       <c r="T49">
-        <v>1.063059770975613</v>
+        <v>1.0630611455718397</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -2389,28 +2389,28 @@
         <v>11</v>
       </c>
       <c r="E50">
-        <v>40.65824060502962</v>
+        <v>40.65824060500031</v>
       </c>
       <c r="F50">
-        <v>39.61434444238443</v>
+        <v>39.614344443736414</v>
       </c>
       <c r="G50">
-        <v>40.119646801823116</v>
+        <v>40.11964680176159</v>
       </c>
       <c r="H50">
-        <v>27.183734677444065</v>
+        <v>27.183711724178</v>
       </c>
       <c r="I50">
-        <v>2.1985682927684125</v>
+        <v>2.1985682927293113</v>
       </c>
       <c r="J50">
-        <v>2.346262662301283</v>
+        <v>2.346265696151204</v>
       </c>
       <c r="K50">
-        <v>37.9210785090547</v>
+        <v>37.92107850903228</v>
       </c>
       <c r="L50">
-        <v>27.082290939526626</v>
+        <v>27.082267637446396</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -2427,28 +2427,28 @@
         <v>11</v>
       </c>
       <c r="E51">
-        <v>44.24218814181531</v>
+        <v>44.24218814178458</v>
       </c>
       <c r="F51">
-        <v>42.247266577425684</v>
+        <v>42.24726657905362</v>
       </c>
       <c r="G51">
-        <v>43.112494702100776</v>
+        <v>43.11249470205643</v>
       </c>
       <c r="H51">
-        <v>28.498417887836236</v>
+        <v>28.498393814475953</v>
       </c>
       <c r="I51">
-        <v>2.7070342512093015</v>
+        <v>2.7070342511611574</v>
       </c>
       <c r="J51">
-        <v>2.8888861037768665</v>
+        <v>2.888889839269494</v>
       </c>
       <c r="K51">
-        <v>40.405460450891475</v>
+        <v>40.405460450895276</v>
       </c>
       <c r="L51">
-        <v>28.351616518095565</v>
+        <v>28.351591939457766</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -2465,28 +2465,28 @@
         <v>11</v>
       </c>
       <c r="E52">
-        <v>46.840134966937015</v>
+        <v>46.84013496690142</v>
       </c>
       <c r="F52">
-        <v>44.019149786357914</v>
+        <v>44.019149788211884</v>
       </c>
       <c r="G52">
-        <v>45.1465816451926</v>
+        <v>45.146581645159536</v>
       </c>
       <c r="H52">
-        <v>29.36817758451233</v>
+        <v>29.368152831642973</v>
       </c>
       <c r="I52">
-        <v>3.130637451653564</v>
+        <v>3.130637451597886</v>
       </c>
       <c r="J52">
-        <v>3.340945917475995</v>
+        <v>3.340950237507452</v>
       </c>
       <c r="K52">
-        <v>42.015944193539035</v>
+        <v>42.01594419356165</v>
       </c>
       <c r="L52">
-        <v>29.177524483957736</v>
+        <v>29.177499074684896</v>
       </c>
     </row>
   </sheetData>
